--- a/Lab5ExcelPDF/invoiceDataSorted.xlsx
+++ b/Lab5ExcelPDF/invoiceDataSorted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\automatizari\RPA\Lab5ExcelPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\RPA\Lab5ExcelPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04416E00-F143-4FE3-9136-636408BA002A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71475580-FAB1-4565-AC7B-08A44EC88E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{DD06764B-0E50-479E-89B3-4EAAA269A397}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{CD8BD761-508E-477A-8DBE-3401A63DECDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>nr. 0028</t>
+  </si>
+  <si>
+    <t>nr. 0027</t>
+  </si>
+  <si>
+    <t>nr. 0001</t>
+  </si>
+  <si>
+    <t>Nr aviz: 123456</t>
+  </si>
+  <si>
+    <t>Nr aviz: 312312</t>
+  </si>
   <si>
     <t>26/11/2019</t>
   </si>
   <si>
-    <t>Nr aviz: 123456</t>
+    <t>28/03/2008</t>
   </si>
 </sst>
 </file>
@@ -387,8 +402,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF74E92-B938-4ADA-A50F-4C90AC2F7CE5}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6158A3D6-EB18-4361-B762-BA163C3ED493}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,24 +411,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>123456</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Lab5ExcelPDF/invoiceDataSorted.xlsx
+++ b/Lab5ExcelPDF/invoiceDataSorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\RPA\Lab5ExcelPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71475580-FAB1-4565-AC7B-08A44EC88E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC8833-BD00-472F-B7CC-79FA17407F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{CD8BD761-508E-477A-8DBE-3401A63DECDA}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CD8BD761-508E-477A-8DBE-3401A63DECDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>nr. 0028</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>28/03/2008</t>
+  </si>
+  <si>
+    <t>Column0</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6158A3D6-EB18-4361-B762-BA163C3ED493}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,21 +420,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -433,13 +442,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Lab5ExcelPDF/invoiceDataSorted.xlsx
+++ b/Lab5ExcelPDF/invoiceDataSorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\RPA\Lab5ExcelPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC8833-BD00-472F-B7CC-79FA17407F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322AD336-E982-42F8-A129-0CA1781FCAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{CD8BD761-508E-477A-8DBE-3401A63DECDA}"/>
   </bookViews>
